--- a/AttackSimulationModel/threat_actor_inputs.xlsx
+++ b/AttackSimulationModel/threat_actor_inputs.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Models\cyberattack-simulation\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Models\AttackSimulation\AttackSimulationModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDB35CC-39E2-42FB-8EA9-7FCC0C2B1AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE91F79D-A831-4D37-9F56-D18CD6CA4ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1020" windowWidth="23715" windowHeight="11385" xr2:uid="{655A996C-7B20-495A-8257-2AF7B3356DDC}"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="23715" windowHeight="14760" xr2:uid="{655A996C-7B20-495A-8257-2AF7B3356DDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="threat_actor_inputs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
